--- a/ADSEE_I/Reference_Olivier.xlsx
+++ b/ADSEE_I/Reference_Olivier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martingeorgiev/Documents/One Drive/OneDrive/Documents/TUD/Fourth Year BS/DSE/MIdterm report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roel\Documents\GitHub\DSE-THA\ADSEE_I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{AA7BD323-E464-7441-85E9-13E887B8211F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{71D9269F-9922-194B-A4D4-A14E55B91D95}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76729729-A981-4E78-942A-41DB8529988B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{DDE92C94-5019-484D-94E7-6F8033AD1ADC}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16164" xr2:uid="{DDE92C94-5019-484D-94E7-6F8033AD1ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Piper PA-46</t>
   </si>
@@ -142,6 +142,51 @@
   </si>
   <si>
     <t>MTOW</t>
+  </si>
+  <si>
+    <t>Zunum Aero</t>
+  </si>
+  <si>
+    <t>Electric Reference aircraft</t>
+  </si>
+  <si>
+    <t>Battery Weight [kg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power </t>
+  </si>
+  <si>
+    <t>Pipistrel Electro</t>
+  </si>
+  <si>
+    <t>Payload</t>
+  </si>
+  <si>
+    <t>60 min flight</t>
+  </si>
+  <si>
+    <t>Pipistrel Taurus Electro</t>
+  </si>
+  <si>
+    <t>42 or 59</t>
+  </si>
+  <si>
+    <t>Eviation Alice</t>
+  </si>
+  <si>
+    <t>3x260KW</t>
+  </si>
+  <si>
+    <t>Range [km]</t>
+  </si>
+  <si>
+    <t>maxwell 57</t>
+  </si>
+  <si>
+    <t>3000 pounds</t>
+  </si>
+  <si>
+    <t>860 pounds</t>
   </si>
 </sst>
 </file>
@@ -189,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -205,7 +250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,22 +546,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0626C6BC-55BB-FC44-92B1-1620C858D09C}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -532,8 +579,29 @@
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -549,8 +617,23 @@
       <c r="E2">
         <v>327</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>350</v>
+      </c>
+      <c r="I2">
+        <v>550</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -566,8 +649,20 @@
       <c r="E3">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>306</v>
+      </c>
+      <c r="I3">
+        <v>450</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -583,8 +678,20 @@
       <c r="E4">
         <v>245</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <v>6350</v>
+      </c>
+      <c r="L4">
+        <v>1046</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -600,8 +707,17 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -618,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -635,7 +751,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -652,7 +768,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -669,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -686,7 +802,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -703,7 +819,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -720,7 +836,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -737,7 +853,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -748,7 +864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -759,7 +875,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -770,7 +886,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -781,7 +897,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -792,7 +908,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -803,7 +919,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -814,7 +930,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -825,7 +941,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -836,7 +952,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -847,7 +963,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -858,7 +974,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -869,7 +985,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -880,7 +996,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -891,7 +1007,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -902,7 +1018,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -913,7 +1029,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -924,7 +1040,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -935,7 +1051,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -946,7 +1062,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -957,7 +1073,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -968,7 +1084,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -979,7 +1095,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -990,7 +1106,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1001,7 +1117,19 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3719</v>
+      </c>
+      <c r="C40">
+        <v>5216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>